--- a/biology/Biochimie/Famille_de_protéines/Famille_de_protéines.xlsx
+++ b/biology/Biochimie/Famille_de_protéines/Famille_de_protéines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Famille_de_prot%C3%A9ines</t>
+          <t>Famille_de_protéines</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une famille de protéines est un ensemble de protéines généralement codées par une famille de gènes.
 Les familles de protéines regroupent des protéines ayant des caractéristiques proches en termes de structure, de fonction enzymatique et de fonction cellulaire.
